--- a/spl-lib/examples/download-csv-benchmarks/data/collected.xlsx
+++ b/spl-lib/examples/download-csv-benchmarks/data/collected.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="28" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <sheet name="3153887" sheetId="4" r:id="rId25"/>
     <sheet name="5112676" sheetId="3" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="54">
   <si>
     <t>End-to-end</t>
   </si>
@@ -203,6 +203,18 @@
   <si>
     <t>Dev End-to-end</t>
   </si>
+  <si>
+    <t>Get:</t>
+  </si>
+  <si>
+    <t>timing data for json transformation</t>
+  </si>
+  <si>
+    <t>memory profiling?</t>
+  </si>
+  <si>
+    <t>take more samples</t>
+  </si>
 </sst>
 </file>
 
@@ -274,8 +286,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -308,7 +328,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -321,6 +341,10 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -333,6 +357,10 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1004,11 +1032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-828142848"/>
-        <c:axId val="-368701904"/>
+        <c:axId val="-1129407232"/>
+        <c:axId val="-1129404112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-828142848"/>
+        <c:axId val="-1129407232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,12 +1148,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-368701904"/>
+        <c:crossAx val="-1129404112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-368701904"/>
+        <c:axId val="-1129404112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-828142848"/>
+        <c:crossAx val="-1129407232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2175,10 +2203,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3976,6 +4004,26 @@
       <c r="Q26">
         <f t="shared" ca="1" si="15"/>
         <v>0.79191990114520894</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -16335,8 +16383,8 @@
   <sheetPr codeName="Sheet24" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21420,8 +21468,8 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD27"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
